--- a/Project Documents/workAllocation.xlsx
+++ b/Project Documents/workAllocation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -88,6 +88,21 @@
   <si>
     <t>Payments 
 Statements</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Ranjith Behera</t>
+  </si>
+  <si>
+    <t>Siddhant Mishra</t>
+  </si>
+  <si>
+    <t>Bharti Patel</t>
+  </si>
+  <si>
+    <t>Mohammed Falil</t>
   </si>
 </sst>
 </file>
@@ -169,25 +184,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -493,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,172 +538,304 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="7"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="7"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="7"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>10</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>11</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>12</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>13</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>14</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="38">
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A42:A43"/>
@@ -699,24 +846,6 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documents/workAllocation.xlsx
+++ b/Project Documents/workAllocation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>Mohammed Falil</t>
+  </si>
+  <si>
+    <t>Table  Creation</t>
+  </si>
+  <si>
+    <t>UserTable</t>
+  </si>
+  <si>
+    <t>Admin Table</t>
+  </si>
+  <si>
+    <t>Account Approval</t>
+  </si>
+  <si>
+    <t>User Authentication Table</t>
+  </si>
+  <si>
+    <t>Transaction Table</t>
+  </si>
+  <si>
+    <t>Payee Table</t>
+  </si>
+  <si>
+    <t>Biller Register Table</t>
+  </si>
+  <si>
+    <t>Biller Provider Table</t>
+  </si>
+  <si>
+    <t>Account Table</t>
   </si>
 </sst>
 </file>
@@ -176,12 +206,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -191,18 +236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,10 +550,10 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="4" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,281 +566,367 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>11</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>13</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="44">
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="C3:C7"/>
@@ -818,34 +937,6 @@
     <mergeCell ref="D18:D28"/>
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="D9:D16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documents/workAllocation.xlsx
+++ b/Project Documents/workAllocation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Title</t>
   </si>
@@ -108,31 +108,28 @@
     <t>Table  Creation</t>
   </si>
   <si>
-    <t>UserTable</t>
-  </si>
-  <si>
-    <t>Admin Table</t>
-  </si>
-  <si>
-    <t>Account Approval</t>
-  </si>
-  <si>
-    <t>User Authentication Table</t>
-  </si>
-  <si>
-    <t>Transaction Table</t>
-  </si>
-  <si>
-    <t>Payee Table</t>
-  </si>
-  <si>
-    <t>Biller Register Table</t>
-  </si>
-  <si>
-    <t>Biller Provider Table</t>
-  </si>
-  <si>
-    <t>Account Table</t>
+    <t xml:space="preserve">Admin Authentication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account </t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Authentication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biller Register </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biller Provider </t>
   </si>
 </sst>
 </file>
@@ -217,18 +214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -236,6 +221,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +571,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -584,41 +581,41 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -627,7 +624,7 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -642,7 +639,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -656,7 +653,7 @@
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3"/>
@@ -665,7 +662,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -679,7 +676,7 @@
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
@@ -688,7 +685,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -697,7 +694,7 @@
       <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -712,7 +709,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -726,7 +723,7 @@
       <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="3"/>
@@ -735,7 +732,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
@@ -747,7 +744,7 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="3"/>
@@ -755,7 +752,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -771,7 +768,7 @@
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="3"/>
@@ -780,7 +777,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -789,7 +786,7 @@
       <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -802,7 +799,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
@@ -811,7 +808,7 @@
       <c r="A33" s="3">
         <v>11</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -826,7 +823,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -840,7 +837,7 @@
       <c r="A36" s="3">
         <v>12</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="3"/>
@@ -849,7 +846,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -865,7 +862,7 @@
       <c r="A39" s="3">
         <v>13</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="3"/>
@@ -874,7 +871,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
@@ -883,22 +880,44 @@
       <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C18:C28"/>
+    <mergeCell ref="D18:D28"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="A42:A43"/>
@@ -909,34 +928,12 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="D33:D40"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="D18:D28"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documents/workAllocation.xlsx
+++ b/Project Documents/workAllocation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t xml:space="preserve">Biller Provider </t>
+  </si>
+  <si>
+    <t>Payement Bills Table</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,26 +217,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +577,7 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -586,7 +592,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
@@ -604,7 +610,7 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
@@ -615,7 +621,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -624,7 +630,7 @@
       <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -639,7 +645,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -653,7 +659,7 @@
       <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="3"/>
@@ -662,7 +668,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -676,7 +682,7 @@
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="3"/>
@@ -685,7 +691,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="9"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -694,7 +700,7 @@
       <c r="A18" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -786,7 +792,7 @@
       <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -799,7 +805,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
@@ -808,7 +814,7 @@
       <c r="A33" s="3">
         <v>11</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -823,7 +829,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -837,7 +843,7 @@
       <c r="A36" s="3">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="3"/>
@@ -846,7 +852,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
@@ -862,34 +868,73 @@
       <c r="A39" s="3">
         <v>13</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>14</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
+      <c r="B43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C33:C40"/>
     <mergeCell ref="D33:D40"/>
     <mergeCell ref="C3:C7"/>
@@ -900,40 +945,6 @@
     <mergeCell ref="D18:D28"/>
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="D9:D16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project Documents/workAllocation.xlsx
+++ b/Project Documents/workAllocation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Title</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Payement Bills Table</t>
+  </si>
+  <si>
+    <t>Account Approval Table</t>
   </si>
 </sst>
 </file>
@@ -215,31 +218,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,16 +577,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -591,352 +594,316 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>9</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>11</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>12</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>13</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="11"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="11" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="11"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>14</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="10"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E16"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C33:C40"/>
-    <mergeCell ref="D33:D40"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="C30:C31"/>
@@ -945,6 +912,42 @@
     <mergeCell ref="D18:D28"/>
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="D9:D16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C33:C40"/>
+    <mergeCell ref="D33:D40"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E16"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E26:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
